--- a/cakes/cake-factory-problem.xlsx
+++ b/cakes/cake-factory-problem.xlsx
@@ -8,13 +8,66 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymczak.a.4\Documents\women_tech_prez\code\Optimization-training-examples\cakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BD620A-3558-4144-A164-FD9F4F6BCCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD0631-A66A-4EBD-B9EA-968401CF077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cakes-problem" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'cakes-problem'!$I$5,'cakes-problem'!$I$6</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'cakes-problem'!$I$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'cakes-problem'!$I$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'cakes-problem'!$K$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'cakes-problem'!$K$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'cakes-problem'!$K$18</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'cakes-problem'!$K$18</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'cakes-problem'!$K$15</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'cakes-problem'!$K$15</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'cakes-problem'!$I$4</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'cakes-problem'!$M$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'cakes-problem'!$M$13</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'cakes-problem'!$M$18</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'cakes-problem'!$M$18</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'cakes-problem'!$M$15</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'cakes-problem'!$M$15</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>x</t>
   </si>
@@ -53,9 +106,6 @@
     <t>1. available flour</t>
   </si>
   <si>
-    <t>200x + 100y &lt;= 5000</t>
-  </si>
-  <si>
     <t>2.available fat</t>
   </si>
   <si>
@@ -65,9 +115,6 @@
     <t>x,y&gt;0</t>
   </si>
   <si>
-    <t>3. compare each intersection</t>
-  </si>
-  <si>
     <t>Z = (x+y)</t>
   </si>
   <si>
@@ -75,6 +122,63 @@
   </si>
   <si>
     <t>Cake B (y)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>1. manual</t>
+  </si>
+  <si>
+    <t>cake A</t>
+  </si>
+  <si>
+    <t>cake B</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>decision variables</t>
+  </si>
+  <si>
+    <t>3. solver</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>x &lt;=</t>
+  </si>
+  <si>
+    <t>x &gt;=</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>200x + 100y &lt;= 6000</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>2. solve with branch and bound</t>
+  </si>
+  <si>
+    <t>objective function: MAX - 6*Cake A + 4* cake B</t>
   </si>
 </sst>
 </file>
@@ -104,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -127,17 +231,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,7 +383,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$C$10:$C$11</c:f>
+              <c:f>'cakes-problem'!$D$11:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -191,19 +391,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$D$10:$D$11</c:f>
+              <c:f>'cakes-problem'!$E$11:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -226,7 +426,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$C$14:$C$15</c:f>
+              <c:f>'cakes-problem'!$D$15:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -241,7 +441,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$D$14:$D$15</c:f>
+              <c:f>'cakes-problem'!$E$15:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -324,16 +524,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -358,117 +558,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Freeform: Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC8CB12-8D76-05FC-6788-9DD21A133F98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4143375" y="2609850"/>
-          <a:ext cx="1901825" cy="1190625"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 9525 w 1905000"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1114425"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 1905000"/>
-            <a:gd name="connsiteY1" fmla="*/ 1114425 h 1114425"/>
-            <a:gd name="connsiteX2" fmla="*/ 1905000 w 1905000"/>
-            <a:gd name="connsiteY2" fmla="*/ 1104900 h 1114425"/>
-            <a:gd name="connsiteX3" fmla="*/ 1581150 w 1905000"/>
-            <a:gd name="connsiteY3" fmla="*/ 619125 h 1114425"/>
-            <a:gd name="connsiteX4" fmla="*/ 9525 w 1905000"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 1114425"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1905000" h="1114425">
-              <a:moveTo>
-                <a:pt x="9525" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1114425"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1905000" y="1104900"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1581150" y="619125"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="9525" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -761,175 +850,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D22"/>
+  <dimension ref="B2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="2:13">
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="I4" s="1">
+        <f>B4*I5+B5*I6</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1"/>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="3"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="1">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <f>D4</f>
         <v>200</v>
       </c>
-      <c r="D4" s="1">
+      <c r="I12" s="1">
+        <f>D5</f>
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <f>I5*H12+I6*I12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <f>D6</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <f>E4</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="I13" s="1">
+        <f>E5</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="K13">
+        <f>H13*I5+I13*I6</f>
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <f>E6</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+    <row r="14" spans="2:13">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="D16" s="1">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E22" si="0">$B$4*C21+$B$5*D21</f>
+        <v>80</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="2">
+        <f>80/3</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="D22" s="2">
+        <f>20/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>186.66666666666666</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f>$B$4*C23+$B$5*D23</f>
+        <v>180</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <f>C22</f>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="D29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <f>D22</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="9">
+        <v>26</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15" s="1">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>25</v>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1">
+        <f>D33*6+D34*4</f>
+        <v>184</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2">
+        <f>G33*6+G34*4</f>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:E8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/cakes/cake-factory-problem.xlsx
+++ b/cakes/cake-factory-problem.xlsx
@@ -8,65 +8,117 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymczak.a.4\Documents\women_tech_prez\code\Optimization-training-examples\cakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD0631-A66A-4EBD-B9EA-968401CF077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5680A-3815-494D-ACFB-91F3FCCC1D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cakes-problem" sheetId="2" r:id="rId1"/>
+    <sheet name="cakes-exercise" sheetId="3" r:id="rId1"/>
+    <sheet name="cakes-solved" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'cakes-problem'!$I$5,'cakes-problem'!$I$6</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'cakes-exercise'!$I$5,'cakes-exercise'!$I$6</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'cakes-solved'!$I$5,'cakes-solved'!$I$6</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'cakes-problem'!$I$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'cakes-problem'!$I$6</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'cakes-problem'!$K$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'cakes-problem'!$K$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'cakes-problem'!$K$18</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'cakes-problem'!$K$18</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'cakes-problem'!$K$15</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'cakes-problem'!$K$15</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'cakes-exercise'!$I$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'cakes-solved'!$I$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'cakes-exercise'!$I$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'cakes-solved'!$I$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'cakes-exercise'!$K$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'cakes-solved'!$K$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'cakes-exercise'!$K$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'cakes-solved'!$K$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'cakes-exercise'!$K$18</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'cakes-solved'!$K$18</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'cakes-exercise'!$K$18</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'cakes-solved'!$K$18</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'cakes-exercise'!$K$15</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'cakes-solved'!$K$15</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'cakes-exercise'!$K$15</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'cakes-solved'!$K$15</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'cakes-problem'!$I$4</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'cakes-exercise'!$I$4</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'cakes-solved'!$I$4</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'cakes-problem'!$M$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'cakes-problem'!$M$13</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'cakes-problem'!$M$18</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'cakes-problem'!$M$18</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'cakes-problem'!$M$15</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'cakes-problem'!$M$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'cakes-exercise'!$M$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'cakes-solved'!$M$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'cakes-exercise'!$M$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'cakes-solved'!$M$13</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'cakes-exercise'!$M$18</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'cakes-solved'!$M$18</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'cakes-exercise'!$M$18</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'cakes-solved'!$M$18</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'cakes-exercise'!$M$15</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'cakes-solved'!$M$15</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'cakes-exercise'!$M$15</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'cakes-solved'!$M$15</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -179,6 +231,9 @@
   </si>
   <si>
     <t>objective function: MAX - 6*Cake A + 4* cake B</t>
+  </si>
+  <si>
+    <t>objective function: MAX -</t>
   </si>
 </sst>
 </file>
@@ -208,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -310,11 +365,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -328,16 +423,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +484,148 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$D$11:$D$12</c:f>
+              <c:f>'cakes-exercise'!$D$11:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'cakes-exercise'!$E$11:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1795-4B8D-A058-C827E41166C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'cakes-exercise'!$D$15:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'cakes-exercise'!$E$15:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1795-4B8D-A058-C827E41166C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="60139392"/>
+        <c:axId val="60137856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60139392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60137856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60137856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60139392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'cakes-solved'!$D$11:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -398,7 +640,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$E$11:$E$12</c:f>
+              <c:f>'cakes-solved'!$E$11:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -426,7 +668,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$D$15:$D$16</c:f>
+              <c:f>'cakes-solved'!$D$15:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -441,7 +683,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'cakes-problem'!$E$15:$E$16</c:f>
+              <c:f>'cakes-solved'!$E$15:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -521,6 +763,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95C3823-54AA-4E72-8D6B-33718F3BEF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -849,10 +1134,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D16C6C-4CF6-46E0-BC75-F02F4DDB51AB}">
+  <dimension ref="B2:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <f>B4*I5+B5*I6</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1"/>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <f>D4</f>
+        <v>200</v>
+      </c>
+      <c r="I12" s="1">
+        <f>D5</f>
+        <v>100</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <f>I5*H12+I6*I12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="19">
+        <f>D6</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <f>E4</f>
+        <v>25</v>
+      </c>
+      <c r="I13" s="1">
+        <f>E5</f>
+        <v>50</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <f>H13*I5+I13*I6</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="19">
+        <f>E6</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f>$B$4*C21+$B$5*D21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" ref="E21:E22" si="0">$B$4*C22+$B$5*D22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f>$B$4*C23+$B$5*D23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <f>C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="D29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="9">
+        <v>26</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1">
+        <f>D33*6+D34*4</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="12">
+        <f>G33*6+G34*4</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -968,7 +1709,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -979,24 +1720,24 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,10 +1762,10 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1">
         <v>30</v>
       </c>
@@ -1056,10 +1797,10 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="13"/>
       <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1918,7 @@
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <f>C22</f>
         <v>26.666666666666668</v>
       </c>
